--- a/biology/Botanique/Linaire/Linaire.xlsx
+++ b/biology/Botanique/Linaire/Linaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle linaire diverses plantes de la famille des Plantaginaceae selon la classification phylogénétique (Scrophulariaceae selon la classification traditionnelle). Elles appartiennent au genre Linaria et à des genres proches : Cymbalaria, Kickxia, Chaenorhinum ou Anarrhinum. Il s'agit donc d'un nom vernaculaire désignant un taxon polyphylétique.
 Les feuilles des Linaires rappellent par leur forme celles du Lin. Les fleurs des linaires sont zygomorphes et possèdent un éperon plus ou moins important. Les espèces les plus connues sont la Linaire cymbalaire et la Linaire commune.
@@ -512,9 +524,11 @@
           <t>Particularités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les Linaires, la pollinisation entomogame s'opère essentiellement par des bourdons (genre Bombus et genres voisins) et grosses abeilles suffisamment forts pour entrouvrir la lèvre inférieure de la fleur sur laquelle ils atterrissent et s'introduire à l'intérieur de la corolle pour y prélever nectar et pollen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les Linaires, la pollinisation entomogame s'opère essentiellement par des bourdons (genre Bombus et genres voisins) et grosses abeilles suffisamment forts pour entrouvrir la lèvre inférieure de la fleur sur laquelle ils atterrissent et s'introduire à l'intérieur de la corolle pour y prélever nectar et pollen.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Espèces du genre Linaria
-Linaire des Alpes - Linaria alpina
+          <t>Espèces du genre Linaria</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Linaire des Alpes - Linaria alpina
 Linaire à feuilles étroites ou Linaire d'Italie - Linaria angustissima
 Linaire des champs - Linaria arvensis
 Linaire commune - Linaria vulgaris
@@ -556,20 +575,156 @@
 Linaire du Maroc - Linaria maroccana
 Linaire rampante  ou Linaire striée - Linaria repens
 Linaire des sables - Linaria arenaria
-Linaire de Pélissier - Linaria pelisseriana
-Espèces du genre Cymbalaria
-Linaire cymbalaire, Linaire des murs ou Linaire vivace - Cymbalaria muralis
-Espèces du genre Kickxia
-Linaire bâtarde - Kickxia spuria
+Linaire de Pélissier - Linaria pelisseriana</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Linaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces appelées « linaire »</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces du genre Cymbalaria</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Linaire cymbalaire, Linaire des murs ou Linaire vivace - Cymbalaria muralis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Linaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces appelées « linaire »</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces du genre Kickxia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Linaire bâtarde - Kickxia spuria
 Linaire élatine - Kickxia elatine
 Linaire laineuse - Kickxia lanigera
-Linaire à vrilles - Kickxia cirrhosa
-Espèces du genre Chaenorhinum
-Linaire à feuilles d'Origan - Chaenorhinum origanifolium
+Linaire à vrilles - Kickxia cirrhosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Linaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces appelées « linaire »</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces du genre Chaenorhinum</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Linaire à feuilles d'Origan - Chaenorhinum origanifolium
 Linaire à feuilles rougeâtres - Chaenorhinum rubrifolium
-Petite Linaire - Chaenorhinum minus
-Espèces du genre Anarrhinum
-Linaire à feuilles de pâquerette - Anarrhinum bellidifolium</t>
+Petite Linaire - Chaenorhinum minus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Linaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces appelées « linaire »</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces du genre Anarrhinum</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Linaire à feuilles de pâquerette - Anarrhinum bellidifolium</t>
         </is>
       </c>
     </row>
